--- a/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,12 +49,12 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -70,121 +70,124 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>better</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>good</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>join</t>
+    <t>like</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>home</t>
+    <t>new</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>consumer</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -548,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,7 +562,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +620,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9615384615384616</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -667,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.75</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -685,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -709,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +744,13 @@
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3972868217054263</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C6">
-        <v>205</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>205</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>311</v>
+        <v>47</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8983050847457628</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3733333333333334</v>
+        <v>0.3701550387596899</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>47</v>
+        <v>325</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,13 +894,13 @@
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.825</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +920,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3544973544973545</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C9">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.8203125</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,13 +994,13 @@
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8046875</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1179624664879357</v>
+        <v>0.1152815013404826</v>
       </c>
       <c r="C11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1035,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1059,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1093,13 +1096,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7735849056603774</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1111,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1119,13 +1122,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7676056338028169</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1137,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1145,13 +1148,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7666666666666667</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L15">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1163,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1171,13 +1174,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.746031746031746</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="M16">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1189,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1197,13 +1200,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7446808510638298</v>
+        <v>0.71875</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1215,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1223,13 +1226,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.7125</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L18">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1241,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1275,13 +1278,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.648936170212766</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L20">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1293,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1301,13 +1304,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6318537859007833</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L21">
-        <v>242</v>
+        <v>61</v>
       </c>
       <c r="M21">
-        <v>242</v>
+        <v>61</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1319,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>141</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1327,13 +1330,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.6279069767441861</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1345,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1353,13 +1356,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.62</v>
+        <v>0.6109660574412533</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1371,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1379,13 +1382,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.6041666666666666</v>
+        <v>0.5941176470588235</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1397,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1405,13 +1408,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1423,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1431,13 +1434,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5823529411764706</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L26">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1449,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>142</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1457,13 +1460,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.5730337078651685</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L27">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M27">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1475,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1483,13 +1486,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.5559322033898305</v>
+        <v>0.5389830508474577</v>
       </c>
       <c r="L28">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M28">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1501,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1509,13 +1512,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4853556485355648</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L29">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1527,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>123</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1535,7 +1538,7 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.4769230769230769</v>
+        <v>0.484375</v>
       </c>
       <c r="L30">
         <v>31</v>
@@ -1553,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1561,13 +1564,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.4657534246575342</v>
+        <v>0.4811715481171548</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1579,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>39</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1587,13 +1590,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.453125</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1605,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1639,13 +1642,13 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.1244019138755981</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L34">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1657,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>366</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1665,25 +1668,25 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.1209302325581395</v>
+        <v>0.1558752997601918</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>189</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1691,13 +1694,13 @@
         <v>51</v>
       </c>
       <c r="K36">
-        <v>0.1129807692307692</v>
+        <v>0.1255813953488372</v>
       </c>
       <c r="L36">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1709,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>369</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1717,25 +1720,25 @@
         <v>52</v>
       </c>
       <c r="K37">
-        <v>0.08588957055214724</v>
+        <v>0.1129807692307692</v>
       </c>
       <c r="L37">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>298</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1743,13 +1746,13 @@
         <v>53</v>
       </c>
       <c r="K38">
-        <v>0.08501118568232663</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="L38">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="M38">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1761,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>818</v>
+        <v>804</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1769,25 +1772,25 @@
         <v>54</v>
       </c>
       <c r="K39">
-        <v>0.07666666666666666</v>
+        <v>0.06770255271920089</v>
       </c>
       <c r="L39">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="M39">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="N39">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>831</v>
+        <v>840</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1795,25 +1798,25 @@
         <v>55</v>
       </c>
       <c r="K40">
-        <v>0.0478395061728395</v>
+        <v>0.04503464203233257</v>
       </c>
       <c r="L40">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N40">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O40">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>617</v>
+        <v>827</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1821,25 +1824,25 @@
         <v>56</v>
       </c>
       <c r="K41">
-        <v>0.03938115330520394</v>
+        <v>0.04172526957337084</v>
       </c>
       <c r="L41">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M41">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="N41">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="O41">
-        <v>0.11</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>2049</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1847,25 +1850,25 @@
         <v>57</v>
       </c>
       <c r="K42">
-        <v>0.02419354838709677</v>
+        <v>0.04006163328197226</v>
       </c>
       <c r="L42">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="M42">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="N42">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="O42">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>3025</v>
+        <v>623</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1873,25 +1876,51 @@
         <v>58</v>
       </c>
       <c r="K43">
-        <v>0.0115987460815047</v>
+        <v>0.01906916612798966</v>
       </c>
       <c r="L43">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="M43">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="N43">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="O43">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>3153</v>
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K44">
+        <v>0.01347117794486215</v>
+      </c>
+      <c r="L44">
+        <v>43</v>
+      </c>
+      <c r="M44">
+        <v>52</v>
+      </c>
+      <c r="N44">
+        <v>0.83</v>
+      </c>
+      <c r="O44">
+        <v>0.17</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>3149</v>
       </c>
     </row>
   </sheetData>
